--- a/tmp/Kenya_858p %5b23.98%5d BITC_%5bCCSL%5d FINAL/Kenya_858p %5b23.98%5d BITC_%5bCCSL%5d FINAL.docx-total-recap.xlsx
+++ b/tmp/Kenya_858p %5b23.98%5d BITC_%5bCCSL%5d FINAL/Kenya_858p %5b23.98%5d BITC_%5bCCSL%5d FINAL.docx-total-recap.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
@@ -531,73 +531,73 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5 - STAFF MEMBER</t>
+          <t>5 - ZOE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6 - POLICE OFFICER</t>
+          <t>6 - STAFF MEMBER</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7 - ZOE</t>
+          <t>7 - POLICE OFFICER</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8 - MITCH</t>
+          <t>8 - FEMALE OFFICER</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9 - CHARLIE</t>
+          <t>9 - MITCH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10 - JOE</t>
+          <t>10 - CHARLIE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11 - STAFF MEMBERS</t>
+          <t>11 - JOE</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -607,87 +607,87 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12 - WOMAN</t>
+          <t>12 - STAFF MEMBER 2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13 - MAN</t>
+          <t>13 - STAFF MEMBERS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14 - LUCAS</t>
+          <t>14 - ZOE AND BILLY</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15 - ALL</t>
+          <t>15 - WOMAN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16 - TOURISTS</t>
+          <t>16 - MAN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17 - FEMALE TOURIST</t>
+          <t>17 - LUCAS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18 - TOURIST</t>
+          <t>18 - GROUP</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19 - LAUREN AND NOAH</t>
+          <t>19 - ALL</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20 - ZOE AND JACK</t>
+          <t>20 - TOURISTS</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -697,31 +697,131 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21 - DOCTOR</t>
+          <t>21 - FEMALE TOURIST</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22 - ZOE AND NOAH</t>
+          <t>22 - NOAH AND BILLY</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>23 - POACHER</t>
+          <t>23 - TOURIST</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>24 - LAUREN AND NOAH</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>25 - ZOE AND JACK</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>26 - MAN 1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>27 - DOCTOR</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>28 - MAN 2</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>29 - POACHER 1</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>30 - POACHER 2</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>31 - ZOE AND NOAH</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>32 - POACHER</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>33 - WOMAN 2</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
